--- a/DataUser.xlsx
+++ b/DataUser.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -415,6 +415,9 @@
       <c r="D1" t="str">
         <v>Status</v>
       </c>
+      <c r="E1" t="str">
+        <v>Message</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -429,6 +432,9 @@
       <c r="D2" t="str">
         <v>Success</v>
       </c>
+      <c r="E2" t="str">
+        <v>Registration successful</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -443,6 +449,9 @@
       <c r="D3" t="str">
         <v>Success</v>
       </c>
+      <c r="E3" t="str">
+        <v>Registration successful</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -457,6 +466,9 @@
       <c r="D4" t="str">
         <v>Success</v>
       </c>
+      <c r="E4" t="str">
+        <v>Registration successful</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -471,10 +483,98 @@
       <c r="D5" t="str">
         <v>Success</v>
       </c>
+      <c r="E5" t="str">
+        <v>Registration successful</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>HAHAHA</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Tes123@gmail.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Success</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Registration successful</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Yaho</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Tes234@gmail.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Success</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Registration successful</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>(</v>
+      </c>
+      <c r="C8" t="str">
+        <v>hehe@gmail.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Success</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Registration successful</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>()</v>
+      </c>
+      <c r="C9" t="str">
+        <v>hoho@gmail.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Success</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Registration successful</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>()</v>
+      </c>
+      <c r="C10" t="str">
+        <v>DWWD@gmail.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Failure</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Registration failed</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>